--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>3537900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2539200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>2539200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4024500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>4024500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1765700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>1765700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1374700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>1374700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>668000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>668000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>453500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>453500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2987600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>2987600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>7664200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>7664200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3747400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>3747400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>5404100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>5404100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3683200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>3683200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2842900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>2842900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4114500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6669600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>6669600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3682700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4560800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>4560800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5236800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>5236800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3994300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>3994300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1524900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>1524900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1225500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>1225500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1844400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>4546400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>4546400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2686700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>2686700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>6600200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55363,6 +55363,41 @@
         <v>6600200</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>2475600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55398,6 +55398,41 @@
         <v>2475600</v>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>3142000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55433,6 +55433,41 @@
         <v>3142000</v>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>3047800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1574"/>
+  <dimension ref="A1:I1575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55468,6 +55468,41 @@
         <v>3047800</v>
       </c>
     </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>3606200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1575"/>
+  <dimension ref="A1:I1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55503,6 +55503,41 @@
         <v>3606200</v>
       </c>
     </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>3319500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1576"/>
+  <dimension ref="A1:I1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55538,6 +55538,41 @@
         <v>3319500</v>
       </c>
     </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>3088500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1577"/>
+  <dimension ref="A1:I1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55573,6 +55573,41 @@
         <v>3088500</v>
       </c>
     </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>2487200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1578"/>
+  <dimension ref="A1:I1579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55608,6 +55608,41 @@
         <v>2487200</v>
       </c>
     </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>3362800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1579"/>
+  <dimension ref="A1:I1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55643,6 +55643,41 @@
         <v>3362800</v>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>3369100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1580"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55678,6 +55678,41 @@
         <v>3369100</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>4642100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1581"/>
+  <dimension ref="A1:I1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55713,6 +55713,41 @@
         <v>4642100</v>
       </c>
     </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>987300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1582"/>
+  <dimension ref="A1:I1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55748,6 +55748,41 @@
         <v>987300</v>
       </c>
     </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>2857500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1583"/>
+  <dimension ref="A1:I1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55783,6 +55783,41 @@
         <v>2857500</v>
       </c>
     </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1584" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>777700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1584"/>
+  <dimension ref="A1:I1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55818,6 +55818,41 @@
         <v>777700</v>
       </c>
     </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1585" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>1298600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1585"/>
+  <dimension ref="A1:I1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55853,6 +55853,41 @@
         <v>1298600</v>
       </c>
     </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1586" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>1107100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1586"/>
+  <dimension ref="A1:I1587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55888,6 +55888,41 @@
         <v>1107100</v>
       </c>
     </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1587" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>1715800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1587"/>
+  <dimension ref="A1:I1588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55923,6 +55923,41 @@
         <v>1715800</v>
       </c>
     </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1588" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>1485600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1588"/>
+  <dimension ref="A1:I1589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55958,6 +55958,41 @@
         <v>1485600</v>
       </c>
     </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1589" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>743800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1589"/>
+  <dimension ref="A1:I1590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55993,6 +55993,41 @@
         <v>743800</v>
       </c>
     </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1590" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>448500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1590"/>
+  <dimension ref="A1:I1591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56028,6 +56028,41 @@
         <v>448500</v>
       </c>
     </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1591" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>1646800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1591"/>
+  <dimension ref="A1:I1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56063,6 +56063,41 @@
         <v>1646800</v>
       </c>
     </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1592" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>279700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1592"/>
+  <dimension ref="A1:I1593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56098,6 +56098,41 @@
         <v>279700</v>
       </c>
     </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1593" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>1028600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1593"/>
+  <dimension ref="A1:I1594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56133,6 +56133,41 @@
         <v>1028600</v>
       </c>
     </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1594" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>1313500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1594"/>
+  <dimension ref="A1:I1595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56168,6 +56168,41 @@
         <v>1313500</v>
       </c>
     </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>3180400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1595"/>
+  <dimension ref="A1:I1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56203,6 +56203,41 @@
         <v>3180400</v>
       </c>
     </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>1645700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1596"/>
+  <dimension ref="A1:I1598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56238,6 +56238,76 @@
         <v>1645700</v>
       </c>
     </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>4026900</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1598" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>4172300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1598"/>
+  <dimension ref="A1:I1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56308,6 +56308,41 @@
         <v>4172300</v>
       </c>
     </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1599" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>4433400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1599"/>
+  <dimension ref="A1:I1602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56343,6 +56343,111 @@
         <v>4433400</v>
       </c>
     </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1600" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>1371500</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1601" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>1088300</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1602" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>865100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1602"/>
+  <dimension ref="A1:I1603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56448,6 +56448,41 @@
         <v>865100</v>
       </c>
     </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1603" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>519500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1603"/>
+  <dimension ref="A1:I1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56483,6 +56483,41 @@
         <v>519500</v>
       </c>
     </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1604" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>1148300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5246.xlsx
+++ b/data/5246.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1604"/>
+  <dimension ref="A1:I1607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56518,6 +56518,111 @@
         <v>1148300</v>
       </c>
     </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1605" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>1689000</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1606" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>3641500</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>5246</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>WPRTS</t>
+        </is>
+      </c>
+      <c r="E1607" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>1057100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
